--- a/biology/Mycologie/Macrolépiote/Macrolépiote.xlsx
+++ b/biology/Mycologie/Macrolépiote/Macrolépiote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Macrol%C3%A9piote</t>
+          <t>Macrolépiote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrolepiota, de leur nom vernaculaire, les macrolépiotes forment un genre de champignons basidiomycètes de la famille des Agaricaceae. Macrolepiota procera, ou lépiote élevée, qui présente 10 variétés, 7 formes, est la plus commune des macrolépiotes. Des études phylogénétiques récentes on divisé le genre en deux genres : Macrolepiota et Chlorophyllum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Macrol%C3%A9piote</t>
+          <t>Macrolépiote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur nom vient du grec makros, « grand » et de Lepiota, du grec λε ́πιον, « petite écaille, petite croûte ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Macrol%C3%A9piote</t>
+          <t>Macrolépiote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrolepiota albuminosa est consommé dans la cuisine chinoise, où il est appelé jīzōng ( 鸡枞 , littéralement « sapin-poulet »).
 Macrolepiota procera (et plusieurs espèces proches) est consommée dans la cuisine européenne, où elle est appelée « coulemelle ».
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Macrol%C3%A9piote</t>
+          <t>Macrolépiote</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,50 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Macrolepiota a été créé pour distinguer les grandes lépiotes du genre Lepiota où elles étaient classées précédemment. Le genre Macrolepiota comprend maintenant une douzaine d'espèces. Il est ensuite divisé en deux genres Macrolepiota et Chlorophyllum caractérisé par une cuticule hyménidermale du chapeau et un stipe lisse. 
-Les études de phylogénétique ont divisé ce genre en deux genres, Macrolepiota et Chlorophyllum. Le premier comprend une douzaine d'espèces dont Macrolepiota procera, Macrolepiota mastoidea, Macrolepiota clelandii et certaines espèces étroitement apparentées[1], tandis que le second genre qui était plus diversifié comprend maintenant Chlorophyllum rhacodes, Chlorophyllum molybdites, Chlorophyllum olivieri, Chlorophyllum hortensis, et une nouvelles espèce, Chlorophyllum sphaerosporum
-[2].
-Arbre phylogénique des Macrolepiota
+Les études de phylogénétique ont divisé ce genre en deux genres, Macrolepiota et Chlorophyllum. Le premier comprend une douzaine d'espèces dont Macrolepiota procera, Macrolepiota mastoidea, Macrolepiota clelandii et certaines espèces étroitement apparentées, tandis que le second genre qui était plus diversifié comprend maintenant Chlorophyllum rhacodes, Chlorophyllum molybdites, Chlorophyllum olivieri, Chlorophyllum hortensis, et une nouvelles espèce, Chlorophyllum sphaerosporum
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Macrolépiote</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macrol%C3%A9piote</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbre phylogénique des Macrolepiota</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clade des Athéloïdes
 Boletales, Clade des Bolets
 Agaricales, Clade des Euagarics
@@ -610,9 +664,43 @@
  Agaricus bitorquis
 Agaricus bisporus
 Agaricus campestris
-Agaricus sp.
-Liste des espèces du genre Macrolepiota
-Selon Index Fungorum                                      (12 février 2017)[3] :
+Agaricus sp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macrolépiote</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macrol%C3%A9piote</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces du genre Macrolepiota</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (12 février 2017) :
 Macrolepiota africana (R. Heim) Heinem. 1969
 Macrolepiota albida Heinem. 1969
 Macrolepiota albuminosa (Berk.) Pegler 1972
